--- a/resources/tables/base30.xlsx
+++ b/resources/tables/base30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\tabel\resources\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tabel\resources\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF59250-0864-40F4-952A-5BF23BEE1F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927CA04-B078-4F43-B892-FBAA26EC036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,9 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GP182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B181"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -37326,17 +37324,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A170:A175"/>
     <mergeCell ref="A134:A139"/>
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="A74:A79"/>
@@ -37349,13 +37343,17 @@
     <mergeCell ref="A116:A121"/>
     <mergeCell ref="A122:A127"/>
     <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
